--- a/DSA/tree Question bank.xlsx
+++ b/DSA/tree Question bank.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8D73C15-046B-467E-B72B-FC630B6D2FAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -770,8 +771,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -925,6 +926,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -946,7 +950,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 21"/>
+        <xdr:cNvPr id="2" name="Picture 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -982,11 +992,17 @@
       <xdr:col>53</xdr:col>
       <xdr:colOff>1308463</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>137161</xdr:rowOff>
+      <xdr:rowOff>137162</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1024,7 +1040,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 7"/>
+        <xdr:cNvPr id="4" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1064,7 +1086,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 19"/>
+        <xdr:cNvPr id="5" name="Picture 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1104,7 +1132,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 18"/>
+        <xdr:cNvPr id="6" name="Picture 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1144,7 +1178,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 17"/>
+        <xdr:cNvPr id="7" name="Picture 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1184,7 +1224,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 20"/>
+        <xdr:cNvPr id="8" name="Picture 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1224,20 +1270,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="9" name="Google Shape;334;p29"/>
+        <xdr:cNvPr id="9" name="Google Shape;334;p29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="88357646" y="1476909"/>
-          <a:ext cx="567325" cy="1187951"/>
+          <a:off x="90924580" y="1449083"/>
+          <a:ext cx="568930" cy="3491074"/>
           <a:chOff x="685800" y="3352800"/>
           <a:chExt cx="3429000" cy="3124200"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="10" name="Google Shape;335;p29"/>
+          <xdr:cNvPr id="10" name="Google Shape;335;p29">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -1652,7 +1710,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="11" name="Google Shape;336;p29"/>
+          <xdr:cNvPr id="11" name="Google Shape;336;p29">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -1940,7 +2004,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="12" name="Google Shape;337;p29"/>
+          <xdr:cNvPr id="12" name="Google Shape;337;p29">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2355,7 +2425,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="13" name="Google Shape;338;p29"/>
+          <xdr:cNvPr id="13" name="Google Shape;338;p29">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2643,7 +2719,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="14" name="Google Shape;339;p29"/>
+          <xdr:cNvPr id="14" name="Google Shape;339;p29">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -3058,7 +3140,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="15" name="Google Shape;340;p29"/>
+          <xdr:cNvPr id="15" name="Google Shape;340;p29">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -3346,7 +3434,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="16" name="Google Shape;341;p29"/>
+          <xdr:cNvPr id="16" name="Google Shape;341;p29">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -3761,7 +3855,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="17" name="Google Shape;342;p29"/>
+          <xdr:cNvPr id="17" name="Google Shape;342;p29">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4049,7 +4149,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="18" name="Google Shape;343;p29"/>
+          <xdr:cNvPr id="18" name="Google Shape;343;p29">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4464,7 +4570,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="19" name="Google Shape;344;p29"/>
+          <xdr:cNvPr id="19" name="Google Shape;344;p29">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4752,7 +4864,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="20" name="Google Shape;345;p29"/>
+          <xdr:cNvPr id="20" name="Google Shape;345;p29">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5167,7 +5285,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="21" name="Google Shape;346;p29"/>
+          <xdr:cNvPr id="21" name="Google Shape;346;p29">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5455,7 +5579,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="22" name="Google Shape;347;p29"/>
+          <xdr:cNvPr id="22" name="Google Shape;347;p29">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5870,7 +6000,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="23" name="Google Shape;348;p29"/>
+          <xdr:cNvPr id="23" name="Google Shape;348;p29">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -6158,7 +6294,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="24" name="Google Shape;349;p29"/>
+          <xdr:cNvPr id="24" name="Google Shape;349;p29">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -6573,7 +6715,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="25" name="Google Shape;350;p29"/>
+          <xdr:cNvPr id="25" name="Google Shape;350;p29">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -6861,7 +7009,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="26" name="Google Shape;351;p29"/>
+          <xdr:cNvPr id="26" name="Google Shape;351;p29">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -7276,7 +7430,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="27" name="Google Shape;352;p29"/>
+          <xdr:cNvPr id="27" name="Google Shape;352;p29">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -7564,7 +7724,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="28" name="Google Shape;353;p29"/>
+          <xdr:cNvPr id="28" name="Google Shape;353;p29">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -7979,7 +8145,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="29" name="Google Shape;354;p29"/>
+          <xdr:cNvPr id="29" name="Google Shape;354;p29">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -8267,7 +8439,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="30" name="Google Shape;355;p29"/>
+          <xdr:cNvPr id="30" name="Google Shape;355;p29">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -8671,7 +8849,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -8703,9 +8881,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -8737,6 +8933,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -8912,26 +9126,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:BK29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="BE3" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="U4" sqref="U4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="8"/>
-    <col min="2" max="2" width="33.140625" style="9" customWidth="1"/>
-    <col min="3" max="40" width="33.140625" style="8" customWidth="1"/>
-    <col min="41" max="41" width="26.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="50.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="43" max="56" width="33.140625" style="8" customWidth="1"/>
-    <col min="57" max="63" width="32.140625" style="8" customWidth="1"/>
-    <col min="64" max="16384" width="9.140625" style="8"/>
+    <col min="1" max="1" width="9.109375" style="8"/>
+    <col min="2" max="2" width="33.109375" style="9" customWidth="1"/>
+    <col min="3" max="40" width="33.109375" style="8" customWidth="1"/>
+    <col min="41" max="41" width="26.44140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="50.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="43" max="56" width="33.109375" style="8" customWidth="1"/>
+    <col min="57" max="63" width="32.109375" style="8" customWidth="1"/>
+    <col min="64" max="16384" width="9.109375" style="8"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:63" ht="15.75">
+    <row r="2" spans="1:63" ht="15" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
         <v>232</v>
       </c>
@@ -9118,7 +9332,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:63" ht="144.75" customHeight="1">
+    <row r="3" spans="1:63" ht="326.39999999999998" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10"/>
       <c r="B3" s="2" t="s">
         <v>0</v>
@@ -9303,7 +9517,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="4" spans="1:63" s="9" customFormat="1" ht="30.75" customHeight="1">
+    <row r="4" spans="1:63" s="9" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="12"/>
       <c r="B4" s="4" t="s">
         <v>1</v>
@@ -9488,7 +9702,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:63" s="9" customFormat="1" ht="30.75" customHeight="1">
+    <row r="5" spans="1:63" s="9" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="12"/>
       <c r="B5" s="4" t="s">
         <v>2</v>
@@ -9671,7 +9885,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:63" s="9" customFormat="1" ht="30.75" customHeight="1">
+    <row r="6" spans="1:63" s="9" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="12"/>
       <c r="B6" s="4" t="s">
         <v>3</v>
@@ -9854,7 +10068,7 @@
         <v>2047</v>
       </c>
     </row>
-    <row r="7" spans="1:63" s="9" customFormat="1" ht="30.75" customHeight="1">
+    <row r="7" spans="1:63" s="9" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12"/>
       <c r="B7" s="4" t="s">
         <v>4</v>
@@ -10037,7 +10251,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="8" spans="1:63" s="9" customFormat="1" ht="30.75" customHeight="1">
+    <row r="8" spans="1:63" s="9" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="18" t="s">
         <v>233</v>
       </c>
@@ -10224,7 +10438,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:63">
+    <row r="12" spans="1:63" x14ac:dyDescent="0.3">
       <c r="M12" s="8">
         <v>1</v>
       </c>
@@ -10232,7 +10446,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:63">
+    <row r="13" spans="1:63" x14ac:dyDescent="0.3">
       <c r="M13" s="8">
         <v>2</v>
       </c>
@@ -10240,7 +10454,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:63">
+    <row r="14" spans="1:63" x14ac:dyDescent="0.3">
       <c r="M14" s="8">
         <v>3</v>
       </c>
@@ -10248,7 +10462,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="53:54">
+    <row r="29" spans="53:54" x14ac:dyDescent="0.3">
       <c r="BA29" s="8">
         <v>2</v>
       </c>
@@ -10264,12 +10478,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DSA/tree Question bank.xlsx
+++ b/DSA/tree Question bank.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8D73C15-046B-467E-B72B-FC630B6D2FAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD323B00-6958-426E-9A0D-34F04503434F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -9129,8 +9129,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:BK29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BE3" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="U4" sqref="U4"/>
+    <sheetView tabSelected="1" topLeftCell="BE4" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="BJ10" sqref="BJ10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
